--- a/dorms_data.xlsx
+++ b/dorms_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\Dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3807D762-A1AC-4C45-A2C9-F5765099D26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67CE4A-0726-41BB-9109-4F2E65A2271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+  <si>
+    <t>Dream Haven</t>
+  </si>
+  <si>
+    <t>Taguig</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Horizon Academy</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Serene Residence</t>
+  </si>
+  <si>
+    <t>Paranaque</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>Central Bicutan</t>
+  </si>
+  <si>
+    <t>Greenfield Institute of Technology</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Harmony Living</t>
+  </si>
+  <si>
+    <t>Don Galo</t>
+  </si>
+  <si>
+    <t>Sunrise School of Arts</t>
+  </si>
+  <si>
+    <t>Tranquil Retreat</t>
+  </si>
+  <si>
+    <t>La Huerta</t>
+  </si>
+  <si>
+    <t>Crystal College</t>
+  </si>
+  <si>
+    <t>Blissful Residency</t>
+  </si>
+  <si>
+    <t>B F Homes</t>
+  </si>
+  <si>
+    <t>Sunset High</t>
+  </si>
+  <si>
+    <t>Quietude Suites</t>
+  </si>
+  <si>
+    <t>Upper Bicutan</t>
+  </si>
+  <si>
+    <t>Metro University</t>
+  </si>
+  <si>
+    <t>Urban Oasis</t>
+  </si>
+  <si>
+    <t>Moonwalk</t>
+  </si>
+  <si>
+    <t>City Central School</t>
+  </si>
+  <si>
+    <t>Serendipity Living</t>
+  </si>
+  <si>
+    <t>Hagonoy</t>
+  </si>
+  <si>
+    <t>Harmony High</t>
+  </si>
+  <si>
+    <t>Oasis Retreat</t>
+  </si>
+  <si>
+    <t>San Isidro</t>
+  </si>
+  <si>
+    <t>Metropolitan School</t>
+  </si>
+  <si>
+    <t>Tranquil Haven</t>
+  </si>
+  <si>
+    <t>Bambang</t>
+  </si>
+  <si>
+    <t>Modern Learning Institute</t>
+  </si>
+  <si>
+    <t>Pinnacle Residence</t>
+  </si>
+  <si>
+    <t>Lower Bicutan</t>
+  </si>
+  <si>
+    <t>City Heights Academy</t>
+  </si>
+  <si>
+    <t>Zenith Dorm</t>
+  </si>
+  <si>
+    <t>Bagumbayan</t>
+  </si>
+  <si>
+    <t>Breezy High School</t>
+  </si>
+  <si>
+    <t>Elite Living</t>
+  </si>
+  <si>
+    <t>Tanyag (Bagong Tanyag)</t>
+  </si>
+  <si>
+    <t>Global Business College</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -46,122 +193,53 @@
     <t>rides</t>
   </si>
   <si>
-    <t>Dorm A</t>
-  </si>
-  <si>
-    <t>Taguig</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>shared</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>Dorm B</t>
-  </si>
-  <si>
-    <t>Paranaque</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>Dorm C</t>
-  </si>
-  <si>
-    <t>Dorm D</t>
-  </si>
-  <si>
-    <t>Dorm E</t>
-  </si>
-  <si>
-    <t>Dorm F</t>
-  </si>
-  <si>
-    <t>Dorm G</t>
-  </si>
-  <si>
-    <t>Dorm I</t>
-  </si>
-  <si>
-    <t>Dorm J</t>
-  </si>
-  <si>
-    <t>Dorm K</t>
-  </si>
-  <si>
-    <t>Dorm L</t>
-  </si>
-  <si>
-    <t>Dorm M</t>
-  </si>
-  <si>
-    <t>Dorm N</t>
-  </si>
-  <si>
-    <t>Dorm O</t>
-  </si>
-  <si>
-    <t>Dorm P</t>
-  </si>
-  <si>
-    <t>Dorm Q</t>
-  </si>
-  <si>
-    <t>Dorm R</t>
-  </si>
-  <si>
-    <t>Dorm S</t>
-  </si>
-  <si>
-    <t>Dorm T</t>
-  </si>
-  <si>
-    <t>Dorm H</t>
-  </si>
-  <si>
-    <t>JESTER</t>
-  </si>
-  <si>
-    <t>KIM ESTAURA RESIDENCE</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>barangay</t>
   </si>
   <si>
-    <t>Lower Bicutan</t>
-  </si>
-  <si>
-    <t>Western Bicutan</t>
-  </si>
-  <si>
-    <t>Upper bicutan</t>
+    <t>link</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>www.facebook.com/mynameiskenjie</t>
+  </si>
+  <si>
+    <t>Raizha Mae Living</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>Kim Legendary Living</t>
+  </si>
+  <si>
+    <t>Blk 69 Lot 69 Tibi St</t>
+  </si>
+  <si>
+    <t>JR Store</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>likes</t>
   </si>
   <si>
     <t>near_school</t>
   </si>
   <si>
-    <t>Kim Espolong</t>
+    <t>https://web.facebook.com/groups/982859945207269/posts/2590425444450703/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +252,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,17 +292,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,85 +622,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M16" activeCellId="1" sqref="M14 M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>700</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1.5</v>
@@ -603,25 +713,34 @@
       <c r="H2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>900</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -629,25 +748,34 @@
       <c r="H3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -655,8 +783,17 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -664,16 +801,16 @@
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>1.8</v>
@@ -681,25 +818,34 @@
       <c r="H5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>750</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1.2</v>
@@ -707,25 +853,34 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>950</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>2.5</v>
@@ -733,25 +888,34 @@
       <c r="H7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>850</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>1.7</v>
@@ -759,25 +923,34 @@
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1100</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>2.2999999999999998</v>
@@ -785,13 +958,22 @@
       <c r="H9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>780</v>
+        <v>920</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -806,44 +988,62 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>780</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>920</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>820</v>
+        <v>1100</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -855,47 +1055,68 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>800</v>
+      </c>
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>950</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -907,314 +1128,108 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>100000000</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B16">
-        <v>850</v>
+        <v>12345</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>1.5</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>1100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>780</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>1.2</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>920</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>820</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>2.6</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>950</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>9999</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>5000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23">
-        <v>1.59</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>200000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>200</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25">
-        <v>2555</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25">
-        <v>1.9</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M13" r:id="rId1" xr:uid="{0CC7714F-AAF6-471A-81FB-EA608F3DB061}"/>
+    <hyperlink ref="M16" r:id="rId2" xr:uid="{179C267B-DBEE-4D4C-BF10-6CB7E5B4DE21}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>